--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_114__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_114__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5420,7 +5420,7 @@
                   <c:v>-2.666240930557251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5081009864807129</c:v>
+                  <c:v>0.508104681968689</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52.14987564086914</c:v>
@@ -5432,7 +5432,7 @@
                   <c:v>43.01633834838867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.743633508682251</c:v>
+                  <c:v>-1.743631601333618</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-1.786557555198669</c:v>
@@ -5444,13 +5444,13 @@
                   <c:v>-1.604914546012878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.08728218078613</c:v>
+                  <c:v>30.08728408813477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.4433587193489075</c:v>
+                  <c:v>-0.4433605968952179</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.72438430786133</c:v>
+                  <c:v>51.72438812255859</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.9601030349731445</c:v>
@@ -5459,19 +5459,19 @@
                   <c:v>-1.371780633926392</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52.96748733520508</c:v>
+                  <c:v>52.96749114990234</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.639790534973145</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.252089649438858</c:v>
+                  <c:v>0.2520858943462372</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>49.78782653808594</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5966828465461731</c:v>
+                  <c:v>-0.5966865420341492</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-2.220679998397827</c:v>
@@ -5492,16 +5492,16 @@
                   <c:v>0.4794128239154816</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.7359201908111572</c:v>
+                  <c:v>0.7359239459037781</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.087051868438721</c:v>
+                  <c:v>-2.087049961090088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.11564254760742</c:v>
+                  <c:v>48.11563491821289</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.01799721270799637</c:v>
+                  <c:v>-0.01799534633755684</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>50.44645309448242</c:v>
@@ -5513,13 +5513,13 @@
                   <c:v>-1.258478999137878</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.34103000164032</c:v>
+                  <c:v>1.341031908988953</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.538982093334198</c:v>
+                  <c:v>0.53898024559021</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.157563328742981</c:v>
+                  <c:v>1.157565116882324</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>53.09776306152344</c:v>
@@ -5531,7 +5531,7 @@
                   <c:v>12.38136196136475</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>52.83552169799805</c:v>
+                  <c:v>52.83551788330078</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-1.447100043296814</c:v>
@@ -5543,10 +5543,10 @@
                   <c:v>-0.5036216974258423</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.2961661219596863</c:v>
+                  <c:v>-0.2961642444133759</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.7691733241081238</c:v>
+                  <c:v>-0.7691770792007446</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.8480545282363892</c:v>
@@ -5558,70 +5558,70 @@
                   <c:v>3.144488334655762</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.079711556434631</c:v>
+                  <c:v>1.079713344573975</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.70541763305664</c:v>
+                  <c:v>51.70541381835938</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.72530198097229</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.7222269177436829</c:v>
+                  <c:v>0.7222288250923157</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0.7098259925842285</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.802292704582214</c:v>
+                  <c:v>-1.802289009094238</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.7565598487854004</c:v>
+                  <c:v>0.7565616965293884</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.772427916526794</c:v>
+                  <c:v>-1.772426128387451</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.03114034235477448</c:v>
+                  <c:v>-0.03113847784698009</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.6407387852668762</c:v>
+                  <c:v>0.6407369375228882</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-1.556228280067444</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.5765410661697388</c:v>
+                  <c:v>-0.5765392184257507</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.4098705947399139</c:v>
+                  <c:v>-0.4098668694496155</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>-1.812437295913696</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4732142388820648</c:v>
+                  <c:v>0.4732123613357544</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.113421559333801</c:v>
+                  <c:v>1.113423466682434</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.591323137283325</c:v>
+                  <c:v>3.591321229934692</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.157563328742981</c:v>
+                  <c:v>1.157565116882324</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-1.38822078704834</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.5438343286514282</c:v>
+                  <c:v>-0.5438324213027954</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>52.15614700317383</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.395879507064819</c:v>
+                  <c:v>-1.395881414413452</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-0.4187209606170654</c:v>
@@ -5630,7 +5630,7 @@
                   <c:v>0.03780141845345497</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.112213134765625</c:v>
+                  <c:v>1.112211346626282</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>-1.693522572517395</c:v>
@@ -5642,7 +5642,7 @@
                   <c:v>49.20195770263672</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.157563328742981</c:v>
+                  <c:v>1.157565116882324</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>3.590086698532104</c:v>
@@ -5651,40 +5651,40 @@
                   <c:v>0.6715807318687439</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.2656616866588593</c:v>
+                  <c:v>-0.2656654119491577</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.6978409290313721</c:v>
+                  <c:v>-0.6978446245193481</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>-1.200614094734192</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.43887996673584</c:v>
+                  <c:v>1.438881874084473</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-0.3084551692008972</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.9482280015945435</c:v>
+                  <c:v>-0.9482316970825195</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.7156721353530884</c:v>
+                  <c:v>-0.7156740427017212</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>31.97547149658203</c:v>
+                  <c:v>31.9754753112793</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.7586278915405273</c:v>
+                  <c:v>0.7586260437965393</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.77251136302948</c:v>
+                  <c:v>-0.772513210773468</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.157563328742981</c:v>
+                  <c:v>1.157565116882324</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.11072313785553</c:v>
+                  <c:v>1.110721349716187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5081009864807129</v>
+        <v>0.508104681968689</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>-1.743633508682251</v>
+        <v>-1.743631601333618</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.08728218078613</v>
+        <v>30.08728408813477</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.4433587193489075</v>
+        <v>-0.4433605968952179</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>51.72438430786133</v>
+        <v>51.72438812255859</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>52.96748733520508</v>
+        <v>52.96749114990234</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.252089649438858</v>
+        <v>0.2520858943462372</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.5966828465461731</v>
+        <v>-0.5966865420341492</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.7359201908111572</v>
+        <v>0.7359239459037781</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-2.087051868438721</v>
+        <v>-2.087049961090088</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>48.11564254760742</v>
+        <v>48.11563491821289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-0.01799721270799637</v>
+        <v>-0.01799534633755684</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.34103000164032</v>
+        <v>1.341031908988953</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.538982093334198</v>
+        <v>0.53898024559021</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.157563328742981</v>
+        <v>1.157565116882324</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>52.83552169799805</v>
+        <v>52.83551788330078</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.2961661219596863</v>
+        <v>-0.2961642444133759</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.7691733241081238</v>
+        <v>-0.7691770792007446</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.079711556434631</v>
+        <v>1.079713344573975</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>51.70541763305664</v>
+        <v>51.70541381835938</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.7222269177436829</v>
+        <v>0.7222288250923157</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-1.802292704582214</v>
+        <v>-1.802289009094238</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.7565598487854004</v>
+        <v>0.7565616965293884</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-1.772427916526794</v>
+        <v>-1.772426128387451</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.03114034235477448</v>
+        <v>-0.03113847784698009</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.6407387852668762</v>
+        <v>0.6407369375228882</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.5765410661697388</v>
+        <v>-0.5765392184257507</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.4098705947399139</v>
+        <v>-0.4098668694496155</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.4732142388820648</v>
+        <v>0.4732123613357544</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.113421559333801</v>
+        <v>1.113423466682434</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>3.591323137283325</v>
+        <v>3.591321229934692</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.157563328742981</v>
+        <v>1.157565116882324</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.5438343286514282</v>
+        <v>-0.5438324213027954</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-1.395879507064819</v>
+        <v>-1.395881414413452</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.112213134765625</v>
+        <v>1.112211346626282</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.157563328742981</v>
+        <v>1.157565116882324</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.2656616866588593</v>
+        <v>-0.2656654119491577</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.6978409290313721</v>
+        <v>-0.6978446245193481</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.43887996673584</v>
+        <v>1.438881874084473</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.9482280015945435</v>
+        <v>-0.9482316970825195</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.7156721353530884</v>
+        <v>-0.7156740427017212</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>31.97547149658203</v>
+        <v>31.9754753112793</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.7586278915405273</v>
+        <v>0.7586260437965393</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.77251136302948</v>
+        <v>-0.772513210773468</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.157563328742981</v>
+        <v>1.157565116882324</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.11072313785553</v>
+        <v>1.110721349716187</v>
       </c>
     </row>
     <row r="92" spans="1:6">
